--- a/2018_vote.xlsx
+++ b/2018_vote.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\OR_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9EF2E7D-EF04-42AB-8D08-03DF3E86BB53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D762179D-00B3-4007-9D16-AA6C3B2485AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1" xr2:uid="{A85F9C9F-E1D3-442A-885D-CA97C62AB0DC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2" xr2:uid="{A85F9C9F-E1D3-442A-885D-CA97C62AB0DC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="215">
   <si>
     <t>總　計</t>
   </si>
@@ -1486,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708FD379-C9C8-4358-86AF-762187CE581A}">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:T20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T20" sqref="A1:T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2503,7 +2504,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -2627,7 +2628,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2689,7 +2690,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -2751,17 +2752,482 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>357</v>
+      </c>
+      <c r="B22">
+        <v>342</v>
+      </c>
+      <c r="C22">
+        <v>326</v>
+      </c>
+      <c r="D22">
+        <v>202</v>
+      </c>
+      <c r="E22">
+        <v>52</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>282</v>
+      </c>
+      <c r="H22">
+        <v>247</v>
+      </c>
+      <c r="I22">
+        <v>177</v>
+      </c>
+      <c r="J22">
+        <v>181</v>
+      </c>
+      <c r="K22">
+        <v>138</v>
+      </c>
+      <c r="L22">
+        <v>110</v>
+      </c>
+      <c r="M22">
+        <v>23</v>
+      </c>
+      <c r="N22">
+        <v>406</v>
+      </c>
+      <c r="O22">
+        <v>328</v>
+      </c>
+      <c r="P22">
+        <v>171</v>
+      </c>
+      <c r="Q22">
+        <v>374</v>
+      </c>
+      <c r="R22">
+        <v>281</v>
+      </c>
+      <c r="S22">
+        <v>119</v>
+      </c>
+      <c r="U22">
+        <f>SUM(A22:S22)</f>
+        <v>4116</v>
+      </c>
+      <c r="V22">
+        <f>U22*0.8</f>
+        <v>3292.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D451F2-A6EC-46AC-B69B-76355DDBB679}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A2:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
